--- a/Chapter_04/Chapter_4_Table_S4.12.xlsx
+++ b/Chapter_04/Chapter_4_Table_S4.12.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\crtuser\OneDrive - National University of Ireland, Galway\Desktop\Dropbox\@John O'Grady\@Thesis\Supplementary\Chapter_04\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{57E3E28A-5C3B-4BC6-B162-3F68B3A568EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2B058BB0-2509-4287-B182-A2826A9B0464}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="49170" yWindow="-1830" windowWidth="29040" windowHeight="15720" xr2:uid="{E68411E2-BBC6-4593-AFBE-0FD5034AA2AF}"/>
+    <workbookView xWindow="20370" yWindow="-1815" windowWidth="29040" windowHeight="15720" xr2:uid="{BFD5BD09-04FC-45F6-AC67-07D37DD29D1E}"/>
   </bookViews>
   <sheets>
     <sheet name="Chapter_4_Table_S4.12" sheetId="1" r:id="rId1"/>
@@ -83,55 +83,55 @@
     <t>PTK2</t>
   </si>
   <si>
-    <t>Pass 2</t>
-  </si>
-  <si>
-    <t>PTK2,TNFRSF13B</t>
-  </si>
-  <si>
-    <t>PTK2,TNFRSF13B,UBE2G1</t>
-  </si>
-  <si>
-    <t>PTK2,TNFRSF13B,UBE2G1,SENP3</t>
-  </si>
-  <si>
-    <t>PTK2,TNFRSF13B,UBE2G1,SENP3,UQCC2</t>
-  </si>
-  <si>
-    <t>PTK2,TNFRSF13B,UBE2G1,SENP3,UQCC2,TAP2</t>
-  </si>
-  <si>
-    <t>PTK2,TNFRSF13B,UBE2G1,SENP3,UQCC2,TAP2,MON1A</t>
-  </si>
-  <si>
-    <t>PTK2,TNFRSF13B,UBE2G1,SENP3,UQCC2,TAP2,MON1A,NFE2L3</t>
-  </si>
-  <si>
-    <t>PTK2,TNFRSF13B,UBE2G1,SENP3,UQCC2,TAP2,MON1A,NFE2L3,CHRNB1</t>
-  </si>
-  <si>
-    <t>PTK2,TNFRSF13B,UBE2G1,SENP3,UQCC2,TAP2,MON1A,NFE2L3,CHRNB1,INTS7</t>
-  </si>
-  <si>
-    <t>PTK2,TNFRSF13B,UBE2G1,SENP3,UQCC2,TAP2,MON1A,NFE2L3,CHRNB1,INTS7,UIMC1</t>
-  </si>
-  <si>
-    <t>PTK2,TNFRSF13B,UBE2G1,SENP3,UQCC2,TAP2,MON1A,NFE2L3,CHRNB1,INTS7,UIMC1,BCL2L15</t>
-  </si>
-  <si>
-    <t>PTK2,TNFRSF13B,UBE2G1,SENP3,UQCC2,TAP2,MON1A,NFE2L3,CHRNB1,INTS7,UIMC1,BCL2L15,ENSBTAG00000047939</t>
-  </si>
-  <si>
-    <t>PTK2,TNFRSF13B,UBE2G1,SENP3,UQCC2,TAP2,MON1A,NFE2L3,CHRNB1,INTS7,UIMC1,BCL2L15,ENSBTAG00000047939,ABAT</t>
-  </si>
-  <si>
-    <t>PTK2,TNFRSF13B,UBE2G1,SENP3,UQCC2,TAP2,MON1A,NFE2L3,CHRNB1,INTS7,UIMC1,BCL2L15,ENSBTAG00000047939,ABAT,ORC2</t>
-  </si>
-  <si>
-    <t>PTK2,TNFRSF13B,UBE2G1,SENP3,UQCC2,TAP2,MON1A,NFE2L3,CHRNB1,INTS7,UIMC1,BCL2L15,ENSBTAG00000047939,ABAT,ORC2,CCR5</t>
-  </si>
-  <si>
-    <t>PTK2,TNFRSF13B,UBE2G1,SENP3,UQCC2,TAP2,MON1A,NFE2L3,CHRNB1,INTS7,UIMC1,BCL2L15,ENSBTAG00000047939,ABAT,ORC2,CCR5,TTC17</t>
+    <t>17-gene set</t>
+  </si>
+  <si>
+    <t>PTK2, TNFRSF13B</t>
+  </si>
+  <si>
+    <t>PTK2, TNFRSF13B, UBE2G1</t>
+  </si>
+  <si>
+    <t>PTK2, TNFRSF13B, UBE2G1, SENP3</t>
+  </si>
+  <si>
+    <t>PTK2, TNFRSF13B, UBE2G1, SENP3, UQCC2</t>
+  </si>
+  <si>
+    <t>PTK2, TNFRSF13B, UBE2G1, SENP3, UQCC2, TAP2</t>
+  </si>
+  <si>
+    <t>PTK2, TNFRSF13B, UBE2G1, SENP3, UQCC2, TAP2, MON1A</t>
+  </si>
+  <si>
+    <t>PTK2, TNFRSF13B, UBE2G1, SENP3, UQCC2, TAP2, MON1A, NFE2L3</t>
+  </si>
+  <si>
+    <t>PTK2, TNFRSF13B, UBE2G1, SENP3, UQCC2, TAP2, MON1A, NFE2L3, GTSE1</t>
+  </si>
+  <si>
+    <t>PTK2, TNFRSF13B, UBE2G1, SENP3, UQCC2, TAP2, MON1A, NFE2L3, GTSE1, TRIQK</t>
+  </si>
+  <si>
+    <t>PTK2, TNFRSF13B, UBE2G1, SENP3, UQCC2, TAP2, MON1A, NFE2L3, GTSE1, TRIQK, ADPGK</t>
+  </si>
+  <si>
+    <t>PTK2, TNFRSF13B, UBE2G1, SENP3, UQCC2, TAP2, MON1A, NFE2L3, GTSE1, TRIQK, ADPGK, GDPGP1</t>
+  </si>
+  <si>
+    <t>PTK2, TNFRSF13B, UBE2G1, SENP3, UQCC2, TAP2, MON1A, NFE2L3, GTSE1, TRIQK, ADPGK, GDPGP1, CCR5</t>
+  </si>
+  <si>
+    <t>PTK2, TNFRSF13B, UBE2G1, SENP3, UQCC2, TAP2, MON1A, NFE2L3, GTSE1, TRIQK, ADPGK, GDPGP1, CCR5, ZNF628</t>
+  </si>
+  <si>
+    <t>PTK2, TNFRSF13B, UBE2G1, SENP3, UQCC2, TAP2, MON1A, NFE2L3, GTSE1, TRIQK, ADPGK, GDPGP1, CCR5, ZNF628, NABP1</t>
+  </si>
+  <si>
+    <t>PTK2, TNFRSF13B, UBE2G1, SENP3, UQCC2, TAP2, MON1A, NFE2L3, GTSE1, TRIQK, ADPGK, GDPGP1, CCR5, ZNF628, NABP1, GEMIN5</t>
+  </si>
+  <si>
+    <t>PTK2, TNFRSF13B, UBE2G1, SENP3, UQCC2, TAP2, MON1A, NFE2L3, GTSE1, TRIQK, ADPGK, GDPGP1, CCR5, ZNF628, NABP1, GEMIN5, GDAP2</t>
   </si>
 </sst>
 </file>
@@ -233,18 +233,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{568C5846-8157-4007-A4EF-3D17024F585D}" name="Table12" displayName="Table12" ref="A2:I19" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F483F7B1-9653-423E-8698-594AD8F7FA47}" name="Table12" displayName="Table12" ref="A2:I19" totalsRowShown="0">
   <autoFilter ref="A2:I19" xr:uid="{AF2A2E5C-5231-4E07-A74F-EEB77339CAF2}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{BF2879B7-12D8-4437-B03E-78DB3DB73BBB}" name="combination" dataDxfId="0"/>
-    <tableColumn id="2" xr3:uid="{F336B87C-B634-4D19-8D2A-45E6DA549FF8}" name="Fold1"/>
-    <tableColumn id="3" xr3:uid="{D1203872-F32D-4835-83F2-24392D0ECBA2}" name="Fold2"/>
-    <tableColumn id="4" xr3:uid="{EE8E6FB6-178D-4B27-8862-847E5AEC194D}" name="Fold3"/>
-    <tableColumn id="5" xr3:uid="{CA462DB3-748F-4CB3-8E86-2D50EDF71B0D}" name="Fold4"/>
-    <tableColumn id="6" xr3:uid="{A6E1D992-2444-4723-B5A8-00585B2F8D18}" name="Fold5"/>
-    <tableColumn id="7" xr3:uid="{3A9AB4FA-FACF-4E54-AC90-F1E23A80B656}" name="Average"/>
-    <tableColumn id="8" xr3:uid="{C12FC6A9-4BA8-4839-81F1-160652D42223}" name="Iteration"/>
-    <tableColumn id="9" xr3:uid="{B9B384E8-3F1A-40D5-A98C-172892A370F8}" name="Group"/>
+    <tableColumn id="1" xr3:uid="{EBFE29D4-A63C-4233-858D-947E844AFA66}" name="combination" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{EF63D3AC-24FC-4345-92DE-FA97864BEAD8}" name="Fold1"/>
+    <tableColumn id="3" xr3:uid="{F0983A39-B22A-4286-9FE2-39D9ECBF036A}" name="Fold2"/>
+    <tableColumn id="4" xr3:uid="{246FAC71-108A-40E9-BB87-B7CD5985EC62}" name="Fold3"/>
+    <tableColumn id="5" xr3:uid="{65EC92C0-9662-420B-AF30-774E388171CF}" name="Fold4"/>
+    <tableColumn id="6" xr3:uid="{BA00D4E7-F560-4643-A453-A1928E049040}" name="Fold5"/>
+    <tableColumn id="7" xr3:uid="{E030657F-BDEC-4870-94D8-27457F829DC7}" name="Average"/>
+    <tableColumn id="8" xr3:uid="{8804EA88-E6B0-4253-B643-98F135A3AE39}" name="Iteration"/>
+    <tableColumn id="9" xr3:uid="{D91708E2-7354-437B-A752-1ECCB07CB5A5}" name="Group"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -566,7 +566,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C482F18-A87D-4E4F-82BF-982E5898D99D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{897CF980-FFD2-4A97-B877-774207A0FC62}">
   <sheetPr codeName="Sheet13"/>
   <dimension ref="A1:K19"/>
   <sheetViews>
@@ -579,6 +579,7 @@
     <col min="1" max="1" width="130.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10" customWidth="1"/>
     <col min="8" max="8" width="10.5703125" customWidth="1"/>
+    <col min="9" max="9" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -596,7 +597,7 @@
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
     </row>
-    <row r="2" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -625,7 +626,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
@@ -654,7 +655,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -683,7 +684,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
@@ -712,7 +713,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>14</v>
       </c>
@@ -741,7 +742,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>15</v>
       </c>
@@ -770,7 +771,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>16</v>
       </c>
@@ -778,7 +779,7 @@
         <v>0.96258503401360496</v>
       </c>
       <c r="C8">
-        <v>0.93498452012383904</v>
+        <v>0.93188854489164097</v>
       </c>
       <c r="D8">
         <v>0.89453125</v>
@@ -790,7 +791,7 @@
         <v>0.987179487179487</v>
       </c>
       <c r="G8">
-        <v>0.95085605826338604</v>
+        <v>0.950236863216947</v>
       </c>
       <c r="H8">
         <v>6</v>
@@ -799,7 +800,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>17</v>
       </c>
@@ -828,7 +829,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>18</v>
       </c>
@@ -836,7 +837,7 @@
         <v>0.97278911564625803</v>
       </c>
       <c r="C10">
-        <v>0.95665634674922595</v>
+        <v>0.95356037151702799</v>
       </c>
       <c r="D10">
         <v>0.921875</v>
@@ -848,7 +849,7 @@
         <v>0.987179487179487</v>
       </c>
       <c r="G10">
-        <v>0.96103332324832802</v>
+        <v>0.96041412820188798</v>
       </c>
       <c r="H10">
         <v>8</v>
@@ -857,27 +858,27 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B11">
-        <v>0.98979591836734704</v>
+        <v>0.97278911564625803</v>
       </c>
       <c r="C11">
-        <v>0.95356037151702799</v>
+        <v>0.97523219814241502</v>
       </c>
       <c r="D11">
-        <v>0.9453125</v>
+        <v>0.94140625</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>0.97083333333333299</v>
       </c>
       <c r="F11">
-        <v>0.97435897435897401</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.97260555284867001</v>
+        <v>0.97205217942440103</v>
       </c>
       <c r="H11">
         <v>9</v>
@@ -886,27 +887,27 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B12">
-        <v>0.99659863945578198</v>
+        <v>0.98979591836734704</v>
       </c>
       <c r="C12">
-        <v>0.93808049535603699</v>
+        <v>0.95665634674922595</v>
       </c>
       <c r="D12">
         <v>0.96484375</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>0.98750000000000004</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.97990457696236399</v>
+        <v>0.97975920302331498</v>
       </c>
       <c r="H12">
         <v>10</v>
@@ -915,7 +916,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>21</v>
       </c>
@@ -923,19 +924,19 @@
         <v>1</v>
       </c>
       <c r="C13">
-        <v>0.94736842105263197</v>
+        <v>0.95975232198142402</v>
       </c>
       <c r="D13">
-        <v>0.96875</v>
+        <v>0.9609375</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>0.99583333333333302</v>
       </c>
       <c r="F13">
-        <v>0.99358974358974395</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.98194163292847503</v>
+        <v>0.98330463106295196</v>
       </c>
       <c r="H13">
         <v>11</v>
@@ -944,7 +945,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>22</v>
       </c>
@@ -952,19 +953,19 @@
         <v>0.99319727891156495</v>
       </c>
       <c r="C14">
-        <v>0.97213622291021695</v>
+        <v>0.98142414860681104</v>
       </c>
       <c r="D14">
-        <v>0.9609375</v>
+        <v>0.97265625</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>0.97083333333333299</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.98525420036435596</v>
+        <v>0.98362220217034202</v>
       </c>
       <c r="H14">
         <v>12</v>
@@ -973,27 +974,27 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>0.98979591836734704</v>
       </c>
       <c r="C15">
-        <v>0.97523219814241502</v>
+        <v>0.99071207430340602</v>
       </c>
       <c r="D15">
-        <v>0.96875</v>
+        <v>0.9765625</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>0.97916666666666696</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.98879643962848296</v>
+        <v>0.98724743186748398</v>
       </c>
       <c r="H15">
         <v>13</v>
@@ -1002,18 +1003,18 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B16">
-        <v>0.99319727891156495</v>
+        <v>0.99659863945578198</v>
       </c>
       <c r="C16">
-        <v>0.99380804953560398</v>
+        <v>0.99690402476780204</v>
       </c>
       <c r="D16">
-        <v>0.96875</v>
+        <v>0.97265625</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -1022,7 +1023,7 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.99115106568943401</v>
+        <v>0.99323178284471703</v>
       </c>
       <c r="H16">
         <v>14</v>
@@ -1031,27 +1032,27 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B17">
-        <v>0.99659863945578198</v>
+        <v>1</v>
       </c>
       <c r="C17">
-        <v>0.984520123839009</v>
+        <v>1</v>
       </c>
       <c r="D17">
         <v>0.984375</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>0.99166666666666703</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.99309875265895797</v>
+        <v>0.99520833333333303</v>
       </c>
       <c r="H17">
         <v>15</v>
@@ -1060,18 +1061,18 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B18">
-        <v>0.99659863945578198</v>
+        <v>1</v>
       </c>
       <c r="C18">
         <v>1</v>
       </c>
       <c r="D18">
-        <v>0.98828125</v>
+        <v>0.9921875</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -1080,7 +1081,7 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.996975977891156</v>
+        <v>0.99843749999999998</v>
       </c>
       <c r="H18">
         <v>16</v>
@@ -1089,18 +1090,18 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>0.99319727891156495</v>
       </c>
       <c r="C19">
         <v>1</v>
       </c>
       <c r="D19">
-        <v>0.98828125</v>
+        <v>1</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -1109,7 +1110,7 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.99765625000000002</v>
+        <v>0.99863945578231295</v>
       </c>
       <c r="H19">
         <v>17</v>
